--- a/Raw data/PII raw.xlsx
+++ b/Raw data/PII raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\OneDrive\Desktop\work\the track fitness club\Proofs\Raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\The_Track_Fitness_Club\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599BD1A-CDC7-478F-BAE7-FE38BFEE081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF263ECA-BE31-49F3-B272-3ED941381CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3EF442AC-45B3-4F8B-AD84-BB7A8D3EE53F}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +127,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -165,7 +158,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +478,7 @@
   <dimension ref="A1:F1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
